--- a/PGD Course-4.xlsx
+++ b/PGD Course-4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>class 1</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>class 11</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16NBetrCKUd13jHGu_7qlzGdssnsLUs8T/view?usp=drivesdk</t>
   </si>
   <si>
     <t>class 12</t>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -185,26 +188,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,102 +302,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +520,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +577,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,185 +617,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,7 +1122,7 @@
   <dimension ref="A4:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1208,115 +1211,118 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1336,6 +1342,7 @@
     <hyperlink ref="B25" r:id="rId13" display="https://twitter.com/denicmarko/status/1591781647439261696?t=eles_1TCyd-RfnD_PHJejQ&amp;s=08" tooltip="https://twitter.com/denicmarko/status/1591781647439261696?t=eles_1TCyd-RfnD_PHJejQ&amp;s=08"/>
     <hyperlink ref="B13" r:id="rId14" display="https://drive.google.com/file/d/1Td5Zj6R4unembydjFwbs-GXm-5Zno93D/view?usp=drivesdk" tooltip="https://drive.google.com/file/d/1Td5Zj6R4unembydjFwbs-GXm-5Zno93D/view?usp=drivesdk"/>
     <hyperlink ref="B12" r:id="rId15" display="https://drive.google.com/file/d/1owmQ72Ka9I72yQewS0FII3NXVoUcVxSV/view?usp=drivesdk" tooltip="https://drive.google.com/file/d/1owmQ72Ka9I72yQewS0FII3NXVoUcVxSV/view?usp=drivesdk"/>
+    <hyperlink ref="B14" r:id="rId16" display="https://drive.google.com/file/d/16NBetrCKUd13jHGu_7qlzGdssnsLUs8T/view?usp=drivesdk" tooltip="https://drive.google.com/file/d/16NBetrCKUd13jHGu_7qlzGdssnsLUs8T/view?usp=drivesdk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
